--- a/app/Plantillas/Entrada/PRUEBA_texto.xlsx
+++ b/app/Plantillas/Entrada/PRUEBA_texto.xlsx
@@ -776,13 +776,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA842B57-E942-4410-9033-25A798EF268B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC7D2054-2D3A-4272-A1BA-98292D41CA63}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FB951DD-5F67-4FD0-8CCC-FE7A2E21F37E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659DECD8-BD8D-419D-9517-4200057C803A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC515AC5-1047-4A4B-83E6-1B6BF3E1A019}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40DC195B-DF73-4114-B5DE-F6D8AF9EDE8D}"/>
 </file>